--- a/18_Natural_Processing/02_raw_sent_ko_en_createdbyJIHYE.xlsx
+++ b/18_Natural_Processing/02_raw_sent_ko_en_createdbyJIHYE.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/Git/TIL/18_Natural_Processing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED09BF-DB15-8944-A2FD-417C508B3325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$103</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="252">
   <si>
     <t>Raw Data</t>
   </si>
@@ -31,9 +40,6 @@
     <t>규율</t>
   </si>
   <si>
-    <t>(market  discipline)</t>
-  </si>
-  <si>
     <t>다만,  P2P  보험에  있어서  도덕적  해이  또는  Moral  Hazard로도  지칭되는보험사기를  법률상  어떻게  정의할지에  대한  검토가  필요하다.</t>
   </si>
   <si>
@@ -67,15 +73,9 @@
     <t>혼성단체</t>
   </si>
   <si>
-    <t>(hybrid  entity)</t>
-  </si>
-  <si>
     <t>거래</t>
   </si>
   <si>
-    <t>(hybrid  mismatch  arrangements)</t>
-  </si>
-  <si>
     <t xml:space="preserve">열린 </t>
   </si>
   <si>
@@ -250,9 +250,6 @@
     <t>포풀라</t>
   </si>
   <si>
-    <t>(Banco  Popular)</t>
-  </si>
-  <si>
     <t>영국  내에  본점을  운영하고  있는  은행에  대하여는  영란은행(BOE)및  건전성감독청(PRA)이  부실  정리를  관할하고  있다.</t>
   </si>
   <si>
@@ -328,24 +325,15 @@
     <t>(loiconstitutionnelle)</t>
   </si>
   <si>
-    <t xml:space="preserve">부산방문을 마치고 귀국한 중국인들이 부산 관광에서 좋았던 느낌 등을 편리하게 달 수 있도록 우리나라의관광정보 시스템 이외에도 중국의 ‘큐큐(QQ)’를 비롯한 포털 시스템에 지속적으로 안내될 수 있도록 종합적으로 대응할 필요가 있을 것이다. </t>
-  </si>
-  <si>
     <t>다음으로  소비자의  행동을  고관여(high  involvement),  저관여(low  involvement)로구분하여  소비자의  행동특성에  관한  연구를  제시하고  있다.</t>
   </si>
   <si>
     <t>고관여</t>
   </si>
   <si>
-    <t>(high  involvement)</t>
-  </si>
-  <si>
     <t>저관여</t>
   </si>
   <si>
-    <t>(low  involvement)</t>
-  </si>
-  <si>
     <t>Keywords: 중국인(Chinese), 관광객(Tourist), 행동특성(Behavior Characteristic),시장 세분화 (Market Segmentation), 단체관광(Group Tour),개별(FIT)</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>브라크</t>
   </si>
   <si>
-    <t>(George  Braque)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 작품은  '차용미술의  어머니'라고  불리는  일레인  스터트밴트(ElaineSturtevant)에 의하여 다시 작품화된다.</t>
   </si>
   <si>
@@ -415,27 +400,18 @@
     <t>쿤스</t>
   </si>
   <si>
-    <t>(Jeff  Koons)</t>
-  </si>
-  <si>
     <t xml:space="preserve">당시  가장  유력한  피의자는  살인  전과가  있었던  크리스터  페터손(Christer  Petterson)이라는 사람이었는데 페터손은 가장 근거리에서 그 사건을 목격하였다. </t>
   </si>
   <si>
     <t>페터손</t>
   </si>
   <si>
-    <t>(Christer  Petterson)</t>
-  </si>
-  <si>
     <t>2006년 작가 마르쿠스 앤데르손(Markus  Andersson)은 스톡홀름 현대미술관에서 전시회를 가진다.</t>
   </si>
   <si>
     <t>앤데르손</t>
   </si>
   <si>
-    <t>(Markus  Andersson)</t>
-  </si>
-  <si>
     <t>IMF에서는  자본적정성(capital adequacy)에 대해그룹 차원의 자본 규제가 없는 것을 지적했다.</t>
   </si>
   <si>
@@ -773,13 +749,43 @@
   </si>
   <si>
     <t>(Knowledge Based Biobased Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market  discipline  </t>
+  </si>
+  <si>
+    <t>hybrid  entity</t>
+  </si>
+  <si>
+    <t>hybrid  mismatch  arrangements</t>
+  </si>
+  <si>
+    <t>Banco  Popular</t>
+  </si>
+  <si>
+    <t>high  involvement</t>
+  </si>
+  <si>
+    <t>low  involvement</t>
+  </si>
+  <si>
+    <t>George  Braque</t>
+  </si>
+  <si>
+    <t>Jeff  Koons</t>
+  </si>
+  <si>
+    <t>Christer  Petterson</t>
+  </si>
+  <si>
+    <t>Markus  Andersson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,16 +793,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -804,18 +854,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -862,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,9 +985,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,6 +1037,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,1024 +1230,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" ht="96" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+    <row r="22" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+      <c r="C25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+      <c r="C26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s">
+      <c r="C35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B37" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
+      <c r="C37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C47" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" t="s">
+      <c r="C48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
+      <c r="C49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" t="s">
+      <c r="B50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" t="s">
+      <c r="B52" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" t="s">
+      <c r="B54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="B55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C55" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B56" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="59" spans="1:3" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C60" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="B61" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C61" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s">
+      <c r="B62" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C62" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C63" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" t="s">
+      <c r="B64" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="65" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C66" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" t="s">
+      <c r="B67" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C68" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B69" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
+      <c r="B70" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C70" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="71" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C73" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B74" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B76" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C76" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C77" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
+    <row r="78" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B78" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
+      <c r="C78" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="C79" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="C80" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" t="s">
+      <c r="C81" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B82" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C82" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="84" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="B80" t="s">
+      <c r="B85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B86" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
+      <c r="C86" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C87" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C88" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B89" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C89" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="B90" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="C90" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87" t="s">
+      <c r="B91" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C91" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="B88" t="s">
+    <row r="92" spans="1:3" ht="96" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B92" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="C92" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C93" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C95" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="B96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C97" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="98" spans="1:3" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B98" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C98" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="B93" t="s">
+    <row r="99" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B99" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B100" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="B95" t="s">
+      <c r="C100" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B101" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" t="s">
+      <c r="C101" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="102" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="B102" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C102" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="103" spans="1:3" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="B103" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="C103" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>244</v>
-      </c>
-      <c r="B101" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>247</v>
-      </c>
-      <c r="B102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>250</v>
-      </c>
-      <c r="B103" t="s">
-        <v>251</v>
-      </c>
-      <c r="C103" t="s">
-        <v>252</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C103" xr:uid="{D636618F-2B7D-1F48-B90E-FB6A8628BE7A}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter val="*  *"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>